--- a/RNA_Seq_RawData/MetaData_EP.xlsx
+++ b/RNA_Seq_RawData/MetaData_EP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/mjhemm_colostate_edu/Documents/Peromyscus-Hypoxia-Origins/RNA_Seq_RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="361" documentId="13_ncr:1_{913B206A-B079-3D43-988A-5B0D1EF46F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D83E8A2-A227-6D48-BEEA-F0ED6BCBA967}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="13_ncr:1_{913B206A-B079-3D43-988A-5B0D1EF46F8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318D0B03-C083-CC45-94D9-9916D9683130}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{0CBE60B6-6D42-834E-93B5-E299CD4231BA}"/>
+    <workbookView xWindow="9840" yWindow="620" windowWidth="28800" windowHeight="15940" xr2:uid="{0CBE60B6-6D42-834E-93B5-E299CD4231BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="5" r:id="rId1"/>
@@ -2136,8 +2136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD39211-4009-CC4E-8930-AA668451D4AB}">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -7425,6 +7425,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010043E81103BCB4704288CD28CE23173D78" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9c45009a53f532b961ea29cb9ad8ad02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f157b843-4339-433b-835c-b0a96d15f1ed" xmlns:ns3="73815e28-a986-4823-8af6-12cf56f28a35" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7e6f3f4f16d3a7171960f272e38f6d3a" ns2:_="" ns3:_="">
     <xsd:import namespace="f157b843-4339-433b-835c-b0a96d15f1ed"/>
@@ -7619,16 +7628,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C105362A-FA14-4E18-B485-44B84EBC9646}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C85839-F59B-48A7-8EC6-983E08C82C42}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7645,12 +7653,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C105362A-FA14-4E18-B485-44B84EBC9646}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>